--- a/data/trans_bre/P25_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,30 +620,40 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,23%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-37,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,71</t>
+          <t>-12,18; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>0,0; 14,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 11,12</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-28,26%</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,35%</t>
+          <t>-80,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>-67,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-38,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-20,01%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 5,37</t>
+          <t>-17,24; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 2,82</t>
+          <t>-12,11; 1,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,46</t>
+          <t>-10,15; 4,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,53; 186,15</t>
+          <t>-11,12; 8,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,34; 434,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,64</t>
+          <t>-11,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-74,35%</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-60,35%</t>
+          <t>-69,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-44,2%</t>
+          <t>-51,44%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-31,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-51,47%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,15; -4,26</t>
+          <t>-22,24; -1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -2,06</t>
+          <t>-17,42; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,45</t>
+          <t>-12,71; 6,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-94,24; -32,76</t>
+          <t>-24,35; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,42; -10,71</t>
+          <t>-93,76; 5,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 41,88</t>
+          <t>-85,52; 88,86</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-79,56; 196,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-81,5; 40,9</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>57,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 5,66</t>
+          <t>-11,63; 7,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 9,49</t>
+          <t>-10,44; 10,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 16,59</t>
+          <t>-4,09; 16,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 51,66</t>
+          <t>-6,87; 19,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 76,57</t>
+          <t>-63,75; 115,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 157,35</t>
+          <t>-52,43; 123,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-28,45; 280,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,0; 124,64</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>-14,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 14,02</t>
+          <t>-15,86; 13,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 12,61</t>
+          <t>-18,92; 13,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 12,46</t>
+          <t>-15,24; 17,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 77,61</t>
+          <t>-13,76; 19,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 56,41</t>
+          <t>-54,2; 85,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 63,03</t>
+          <t>-56,33; 65,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 96,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,91; 86,66</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-26,75%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88,23%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 11,3</t>
+          <t>-19,61; 18,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 23,22</t>
+          <t>-12,58; 24,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 9,19</t>
+          <t>-29,95; 10,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 54,89</t>
+          <t>-3,21; 35,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 185,07</t>
+          <t>-51,2; 81,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 37,89</t>
+          <t>-42,28; 200,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-68,37; 57,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,85; 343,16</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-24,21%</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 0,16</t>
+          <t>-9,62; -0,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,88</t>
+          <t>-7,74; 2,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,5</t>
+          <t>-4,59; 5,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 1,69</t>
+          <t>-3,24; 9,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 31,32</t>
+          <t>-52,79; 1,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 48,9</t>
+          <t>-46,09; 19,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-31,81; 58,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 74,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-37,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>2.061140597226968</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.5294866899413233</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.371771408348062</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.291806768063839</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1892962015028321</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +662,138 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 4,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.095326458143925</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.27070566172112</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.614730263601507</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.35423734769696</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.92371407848562</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-80,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-67,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-38,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-20,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; 0,21</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 1,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 4,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; 8,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.854178329208337</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.748358295114623</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.880966907696068</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.122610064986863</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.7809880869558106</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7015124524786307</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3790087311530268</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.179779485717246</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,31</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-69,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-51,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-31,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-51,47%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.42375556809995</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.47274743439289</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.492991308618661</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.18296687360436</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; -1,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,42; 2,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,71; 6,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,35; 2,73</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-93,76; 5,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-85,52; 88,86</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-79,56; 196,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-81,5; 40,9</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9770549604232718</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.580315813208566</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.452438436382728</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.033198646188904</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +801,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>57,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>25,19%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.78310880868912</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.587752443674148</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.705784331218788</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.81912921192744</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.7161732998179239</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5966535679837485</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2862663317215622</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5078057627444488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 7,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 10,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 16,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 19,58</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-63,75; 115,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-52,43; 123,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-28,45; 280,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,0; 124,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.8975118730719</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.6431564322055</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.08789139357959</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.55169996608777</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.9441048707804023</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8891853489532329</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7836991507012068</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8099845672065075</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.035882516560526</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5141635595825926</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.649999496267172</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.670087446084811</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.07184300630567765</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4694657268698858</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.551790871278055</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3139270102907347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,28%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,86; 13,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,92; 13,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 17,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 19,29</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-54,2; 85,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-56,33; 65,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-48,36; 96,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,91; 86,66</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.158027375855499</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.945292690608933</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.266878227719889</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.873219755657201</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.01359594352834678</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1470835961421249</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5344291024350889</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3267682362572046</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-8,44</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,38</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-3,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,52%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-26,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>88,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.45543078532416</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.60736414182141</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.031035633748913</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.784319048179158</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6159671182357683</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4858557775382599</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3424588773744305</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2286241370802306</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-19,61; 18,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 24,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-29,95; 10,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 35,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-51,2; 81,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-42,28; 200,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-68,37; 57,58</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,85; 343,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.787707467708302</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.65831194973808</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.62166601436166</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.92287515908562</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.49880905841371</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.458813050038347</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.561838608573713</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.390345858028659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1001,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,43</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-18,15%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.632323855912432</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.321026648926094</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.316909432208627</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1.046471393775217</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.07105227591970699</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.08456199406865492</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.09660828801585448</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.03385794034894091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; -0,01</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 2,34</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 5,21</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 9,66</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-52,79; 1,77</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-46,09; 19,17</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-31,81; 58,74</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 74,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.73335393863718</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-17.72056776645064</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.47293774390027</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-13.74570138004699</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4884480562826968</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.5232343893861913</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.4303050736977332</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3689322587739353</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.15324682737344</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.06450525104334</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>20.43644283844305</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>19.22173455341189</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.050659947182507</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8268983572111914</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.140768072059368</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.8635899663626525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.8376583558248663</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.57236894047409</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-8.620544466417462</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>17.33824842363285</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.02931097950287326</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.2511701863109412</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.278850779965905</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.03621765303086</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-17.63630002411139</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-13.00653540429455</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-29.54135567671018</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.305238446252175</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4619112256337569</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.4369084629286112</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.6999444309751871</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1659469209316849</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20.64000583847089</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>25.87774031073933</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.11162422373798</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>36.11343502138337</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.021358844136412</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.151546291450539</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.5935878128134372</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.782801880963598</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.847805046930364</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.548366569156236</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2870889409204866</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3.088291064752682</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2680850752208414</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.1787206594457165</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.02374791116933901</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1958880762869022</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.880696032783961</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.92285402522521</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.22246580058818</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.77736825876792</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.5143715162415637</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4590834443358029</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3064777501159705</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1442087478186704</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.7723916763124733</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.317714780153129</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.407144304550088</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.763394313007172</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.06821793456111382</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.2050792932411943</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.6136784521276645</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.7602110962101185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1299,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
